--- a/data/financial_statements/sofp/GM.xlsx
+++ b/data/financial_statements/sofp/GM.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -137,9 +254,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,12 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -502,144 +613,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>30311000000</v>
+        <v>32607000000</v>
       </c>
       <c r="C2">
-        <v>26834000000</v>
+        <v>29343000000</v>
       </c>
       <c r="D2">
-        <v>26256000000</v>
+        <v>29383000000</v>
       </c>
       <c r="E2">
-        <v>28676000000</v>
+        <v>31611000000</v>
       </c>
       <c r="F2">
-        <v>23940000000</v>
+        <v>26782000000</v>
       </c>
       <c r="G2">
         <v>29131000000</v>
@@ -745,8 +856,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>45070000000</v>
@@ -867,8 +978,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>16367000000</v>
@@ -989,23 +1100,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>6524000000</v>
+        <v>4228000000</v>
       </c>
       <c r="C5">
-        <v>6504000000</v>
+        <v>3995000000</v>
       </c>
       <c r="D5">
-        <v>7113000000</v>
+        <v>3986000000</v>
       </c>
       <c r="E5">
-        <v>6396000000</v>
+        <v>3461000000</v>
       </c>
       <c r="F5">
-        <v>6133000000</v>
+        <v>3291000000</v>
       </c>
       <c r="G5">
         <v>7765000000</v>
@@ -1111,8 +1222,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>98271000000</v>
@@ -1233,23 +1344,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>42795000000</v>
+        <v>76573000000</v>
       </c>
       <c r="C7">
-        <v>41943000000</v>
+        <v>77250000000</v>
       </c>
       <c r="D7">
-        <v>41708000000</v>
+        <v>78289000000</v>
       </c>
       <c r="E7">
-        <v>41115000000</v>
+        <v>80144000000</v>
       </c>
       <c r="F7">
-        <v>39637000000</v>
+        <v>79294000000</v>
       </c>
       <c r="G7">
         <v>38822000000</v>
@@ -1355,23 +1466,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>9910000000</v>
+        <v>10369000000</v>
       </c>
       <c r="C8">
-        <v>9733000000</v>
+        <v>10229000000</v>
       </c>
       <c r="D8">
-        <v>10402000000</v>
+        <v>10905000000</v>
       </c>
       <c r="E8">
-        <v>9677000000</v>
+        <v>10217000000</v>
       </c>
       <c r="F8">
-        <v>9234000000</v>
+        <v>10678000000</v>
       </c>
       <c r="G8">
         <v>8882000000</v>
@@ -1477,8 +1588,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>39551000000</v>
@@ -1599,8 +1710,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>4968000000</v>
@@ -1721,8 +1832,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>20572000000</v>
@@ -1843,23 +1954,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>44462000000</v>
+        <v>10225000000</v>
       </c>
       <c r="C12">
-        <v>46468000000</v>
+        <v>10665000000</v>
       </c>
       <c r="D12">
-        <v>48035000000</v>
+        <v>10951000000</v>
       </c>
       <c r="E12">
-        <v>49417000000</v>
+        <v>9848000000</v>
       </c>
       <c r="F12">
-        <v>49879000000</v>
+        <v>8778000000</v>
       </c>
       <c r="G12">
         <v>48406000000</v>
@@ -1965,8 +2076,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>162258000000</v>
@@ -2087,8 +2198,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>260529000000</v>
@@ -2209,8 +2320,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>26886000000</v>
@@ -2331,8 +2442,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>24034000000</v>
@@ -2453,8 +2564,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>35084000000</v>
@@ -2466,7 +2577,7 @@
         <v>33037000000</v>
       </c>
       <c r="E17">
-        <v>33720000000</v>
+        <v>33924000000</v>
       </c>
       <c r="F17">
         <v>34819000000</v>
@@ -2575,8 +2686,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>24033000000</v>
@@ -2625,8 +2736,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>86003000000</v>
@@ -2747,8 +2858,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>77523000000</v>
@@ -2760,10 +2871,10 @@
         <v>76768000000</v>
       </c>
       <c r="E20">
-        <v>75659000000</v>
+        <v>76671000000</v>
       </c>
       <c r="F20">
-        <v>74134000000</v>
+        <v>75109000000</v>
       </c>
       <c r="G20">
         <v>76698000000</v>
@@ -2869,8 +2980,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D21">
         <v>2800000000</v>
@@ -2901,8 +3012,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>12440000000</v>
@@ -3023,8 +3134,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>-20572000000</v>
@@ -3064,8 +3175,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>228000000</v>
@@ -3078,23 +3189,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>14795000000</v>
+        <v>27235000000</v>
       </c>
       <c r="C25">
-        <v>14677000000</v>
+        <v>27664000000</v>
       </c>
       <c r="D25">
-        <v>14601000000</v>
+        <v>25305000000</v>
       </c>
       <c r="E25">
-        <v>15085000000</v>
+        <v>24814000000</v>
       </c>
       <c r="F25">
-        <v>15218000000</v>
+        <v>28094000000</v>
       </c>
       <c r="G25">
         <v>14652000000</v>
@@ -3200,8 +3311,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>104986000000</v>
@@ -3322,17 +3433,17 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>190989000000</v>
+        <v>190761000000</v>
       </c>
       <c r="C27">
-        <v>185257000000</v>
+        <v>185143000000</v>
       </c>
       <c r="D27">
-        <v>184718000000</v>
+        <v>184428000000</v>
       </c>
       <c r="E27">
         <v>178903000000</v>
@@ -3444,8 +3555,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>26657000000</v>
@@ -3566,8 +3677,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="AH29">
         <v>3109000000</v>
@@ -3592,8 +3703,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>14000000</v>
@@ -3714,8 +3825,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>47910000000</v>
@@ -3836,23 +3947,23 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
-        <v>69539000000</v>
+        <v>65268000000</v>
       </c>
       <c r="C32">
-        <v>68260000000</v>
+        <v>63954000000</v>
       </c>
       <c r="D32">
-        <v>66774000000</v>
+        <v>62095000000</v>
       </c>
       <c r="E32">
-        <v>65815000000</v>
+        <v>59744000000</v>
       </c>
       <c r="F32">
-        <v>60321000000</v>
+        <v>54150000000</v>
       </c>
       <c r="G32">
         <v>57876000000</v>
@@ -3958,23 +4069,23 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>69540000000</v>
+        <v>65268000000</v>
       </c>
       <c r="C33">
-        <v>68260000000</v>
+        <v>63954000000</v>
       </c>
       <c r="D33">
-        <v>66774000000</v>
+        <v>62095000000</v>
       </c>
       <c r="E33">
-        <v>65815000000</v>
+        <v>59744000000</v>
       </c>
       <c r="F33">
-        <v>60321000000</v>
+        <v>54150000000</v>
       </c>
       <c r="G33">
         <v>57876000000</v>
@@ -4080,8 +4191,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>260529000000</v>
@@ -4202,8 +4313,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>1420697000</v>
@@ -4324,8 +4435,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="AH36">
         <v>156000000</v>
@@ -4350,8 +4461,8 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
         <v>64572000000</v>
@@ -4472,23 +4583,23 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>82296000000</v>
+        <v>80000000000</v>
       </c>
       <c r="C38">
-        <v>83553000000</v>
+        <v>81044000000</v>
       </c>
       <c r="D38">
-        <v>83549000000</v>
+        <v>80422000000</v>
       </c>
       <c r="E38">
-        <v>80703000000</v>
+        <v>78984000000</v>
       </c>
       <c r="F38">
-        <v>85013000000</v>
+        <v>83146000000</v>
       </c>
       <c r="G38">
         <v>81757000000</v>
@@ -4594,8 +4705,8 @@
       </c>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B39">
         <v>112607000000</v>
@@ -4607,10 +4718,10 @@
         <v>109805000000</v>
       </c>
       <c r="E39">
-        <v>109379000000</v>
+        <v>110595000000</v>
       </c>
       <c r="F39">
-        <v>108953000000</v>
+        <v>109928000000</v>
       </c>
       <c r="G39">
         <v>110888000000</v>
